--- a/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Edad-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>322132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>299442</v>
+        <v>301791</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>342732</v>
+        <v>343574</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.653382933923403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6073612107078914</v>
+        <v>0.6121249525587649</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6951658146043646</v>
+        <v>0.696873768951788</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -764,19 +764,19 @@
         <v>312369</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>292121</v>
+        <v>290807</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>330710</v>
+        <v>330356</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6697029869884963</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6262932003048121</v>
+        <v>0.6234764292924834</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7090260321875592</v>
+        <v>0.7082664624614446</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>651</v>
@@ -785,19 +785,19 @@
         <v>634501</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>607255</v>
+        <v>603923</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>663097</v>
+        <v>663207</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6613167947060101</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6329187790720739</v>
+        <v>0.6294468110566676</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6911211456040119</v>
+        <v>0.6912359579019121</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>170890</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>150290</v>
+        <v>149448</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>193580</v>
+        <v>191231</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3466170660765971</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3048341853956354</v>
+        <v>0.303126231048212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3926387892921084</v>
+        <v>0.387875047441235</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>162</v>
@@ -835,19 +835,19 @@
         <v>154060</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>135719</v>
+        <v>136073</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>174308</v>
+        <v>175622</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3302970130115037</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2909739678124409</v>
+        <v>0.2917335375385558</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3737067996951879</v>
+        <v>0.3765235707075167</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>335</v>
@@ -856,19 +856,19 @@
         <v>324950</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>296354</v>
+        <v>296244</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>352196</v>
+        <v>355528</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3386832052939899</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3088788543959881</v>
+        <v>0.3087640420980879</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.367081220927926</v>
+        <v>0.3705531889433324</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>530765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>507124</v>
+        <v>505624</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>556581</v>
+        <v>554186</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7225810518917993</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6903954259833853</v>
+        <v>0.6883533546015183</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7577257424357882</v>
+        <v>0.754465169429976</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>460</v>
@@ -981,19 +981,19 @@
         <v>489967</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>468900</v>
+        <v>470043</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>508880</v>
+        <v>510651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7833274554390519</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7496468063552388</v>
+        <v>0.7514740949117638</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8135654624198476</v>
+        <v>0.8163968608499244</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>966</v>
@@ -1002,19 +1002,19 @@
         <v>1020731</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>982394</v>
+        <v>988998</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1050983</v>
+        <v>1052141</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7505189470445168</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.722330320423163</v>
+        <v>0.7271864310573009</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7727626111746575</v>
+        <v>0.7736136330376194</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>203776</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>177960</v>
+        <v>180355</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>227417</v>
+        <v>228917</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2774189481082007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2422742575642118</v>
+        <v>0.2455348305700239</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3096045740166146</v>
+        <v>0.3116466453984816</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>131</v>
@@ -1052,19 +1052,19 @@
         <v>135527</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>116614</v>
+        <v>114843</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>156594</v>
+        <v>155451</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2166725445609481</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1864345375801523</v>
+        <v>0.1836031391500758</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2503531936447609</v>
+        <v>0.2485259050882362</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>327</v>
@@ -1073,19 +1073,19 @@
         <v>339303</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>309051</v>
+        <v>307893</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>377640</v>
+        <v>371036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2494810529554832</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.227237388825343</v>
+        <v>0.2263863669623811</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2776696795768372</v>
+        <v>0.2728135689426996</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>493596</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>472085</v>
+        <v>470172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>514392</v>
+        <v>512993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7739210742144287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7401929380072714</v>
+        <v>0.7371936867216252</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8065281463314686</v>
+        <v>0.8043332872224087</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>541</v>
@@ -1198,19 +1198,19 @@
         <v>567544</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>546309</v>
+        <v>544001</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>584221</v>
+        <v>585446</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8228324626658208</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7920462813229217</v>
+        <v>0.7886993075762792</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8470106486134734</v>
+        <v>0.8487869832502724</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1014</v>
@@ -1219,19 +1219,19 @@
         <v>1061140</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1027985</v>
+        <v>1024176</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1089048</v>
+        <v>1089422</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7993339473890869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7743589481264066</v>
+        <v>0.7714902444698026</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8203563574638745</v>
+        <v>0.8206382470082143</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>144190</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>123394</v>
+        <v>124793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>165701</v>
+        <v>167614</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2260789257855713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1934718536685314</v>
+        <v>0.1956667127775914</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2598070619927286</v>
+        <v>0.2628063132783748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>117</v>
@@ -1269,19 +1269,19 @@
         <v>122200</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>105523</v>
+        <v>104298</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>143435</v>
+        <v>145743</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1771675373341792</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1529893513865267</v>
+        <v>0.1512130167497272</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2079537186770788</v>
+        <v>0.2113006924237205</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>256</v>
@@ -1290,19 +1290,19 @@
         <v>266390</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>238482</v>
+        <v>238108</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>299545</v>
+        <v>303354</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.200666052610913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1796436425361258</v>
+        <v>0.1793617529917857</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2256410518735934</v>
+        <v>0.2285097555301979</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>409637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>390121</v>
+        <v>389522</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>428303</v>
+        <v>426830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7890570161788041</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7514651468123856</v>
+        <v>0.7503119579848746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8250124547099404</v>
+        <v>0.8221755001347505</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>428</v>
@@ -1415,19 +1415,19 @@
         <v>440087</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>422265</v>
+        <v>423544</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>454662</v>
+        <v>456040</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8550918424880407</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8204634772187442</v>
+        <v>0.8229485537223615</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8834113668677077</v>
+        <v>0.8860883410986886</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>810</v>
@@ -1436,19 +1436,19 @@
         <v>849723</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>822164</v>
+        <v>823063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>874039</v>
+        <v>870545</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8219313272039453</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7952736153499166</v>
+        <v>0.7961434620662614</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8454515863306324</v>
+        <v>0.8420717060779302</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>109510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>90844</v>
+        <v>92317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>129026</v>
+        <v>129625</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2109429838211959</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1749875452900595</v>
+        <v>0.1778244998652495</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2485348531876143</v>
+        <v>0.2496880420151253</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>73</v>
@@ -1486,19 +1486,19 @@
         <v>74579</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>60004</v>
+        <v>58626</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>92401</v>
+        <v>91122</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1449081575119593</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1165886331322921</v>
+        <v>0.1139116589013113</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1795365227812556</v>
+        <v>0.1770514462776384</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>175</v>
@@ -1507,19 +1507,19 @@
         <v>184090</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>159774</v>
+        <v>163268</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>211649</v>
+        <v>210750</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1780686727960546</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1545484136693676</v>
+        <v>0.1579282939220696</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2047263846500833</v>
+        <v>0.2038565379337386</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>314583</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>298704</v>
+        <v>298743</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>328201</v>
+        <v>328624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8134851158798398</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7724230205930853</v>
+        <v>0.7725241189692884</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8487003244038455</v>
+        <v>0.8497945517572553</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>344</v>
@@ -1632,19 +1632,19 @@
         <v>350716</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>337074</v>
+        <v>335271</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>363230</v>
+        <v>363098</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8681388038664514</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.834370780359066</v>
+        <v>0.82990815314624</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8991161821321009</v>
+        <v>0.8987878441458901</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>662</v>
@@ -1653,19 +1653,19 @@
         <v>665299</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>644715</v>
+        <v>643040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>685912</v>
+        <v>683792</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8414090250065324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8153769220607923</v>
+        <v>0.813258318317701</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.867478321720585</v>
+        <v>0.8647981960777407</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>72127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>58509</v>
+        <v>58086</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88006</v>
+        <v>87967</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1865148841201602</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1512996755961546</v>
+        <v>0.1502054482427447</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2275769794069147</v>
+        <v>0.2274758810307116</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -1703,19 +1703,19 @@
         <v>53270</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40756</v>
+        <v>40888</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66912</v>
+        <v>68715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1318611961335486</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1008838178678991</v>
+        <v>0.1012121558541098</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1656292196409341</v>
+        <v>0.17009184685376</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -1724,19 +1724,19 @@
         <v>125397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104784</v>
+        <v>106904</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>145981</v>
+        <v>147656</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1585909749934676</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1325216782794151</v>
+        <v>0.1352018039222593</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1846230779392085</v>
+        <v>0.1867416816822989</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>247964</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>236640</v>
+        <v>234921</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>259559</v>
+        <v>259223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.847499580791257</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8087961656073204</v>
+        <v>0.802921065408983</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8871290210124216</v>
+        <v>0.8859798552053977</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>332</v>
@@ -1849,19 +1849,19 @@
         <v>306016</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>292274</v>
+        <v>293774</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>315049</v>
+        <v>316712</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8923468641410668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8522737589376047</v>
+        <v>0.8566478454647717</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9186879776680815</v>
+        <v>0.923537649795343</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>588</v>
@@ -1870,19 +1870,19 @@
         <v>553980</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>536940</v>
+        <v>536793</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>569412</v>
+        <v>568936</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8716998118514414</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8448869586097789</v>
+        <v>0.8446557750750471</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8959830974427904</v>
+        <v>0.8952330250744681</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>44619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>33024</v>
+        <v>33360</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>55943</v>
+        <v>57662</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1525004192087431</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1128709789875783</v>
+        <v>0.1140201447946023</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1912038343926796</v>
+        <v>0.1970789345910169</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1920,19 +1920,19 @@
         <v>36918</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27885</v>
+        <v>26222</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50660</v>
+        <v>49160</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1076531358589332</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08131202233191848</v>
+        <v>0.07646235020465693</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1477262410623948</v>
+        <v>0.1433521545352282</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>86</v>
@@ -1941,19 +1941,19 @@
         <v>81537</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66105</v>
+        <v>66581</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>98577</v>
+        <v>98724</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1283001881485586</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1040169025572096</v>
+        <v>0.1047669749255319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1551130413902212</v>
+        <v>0.155344224924953</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>177277</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>164585</v>
+        <v>165963</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>186620</v>
+        <v>186614</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8446447596692899</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7841762385758451</v>
+        <v>0.7907389295076193</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8891633350253773</v>
+        <v>0.8891350640225439</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -2066,19 +2066,19 @@
         <v>289737</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>275776</v>
+        <v>276143</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>301883</v>
+        <v>302448</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8677141210585136</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8259052602023675</v>
+        <v>0.8270037185082154</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9040900447503579</v>
+        <v>0.9057832395493945</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>439</v>
@@ -2087,19 +2087,19 @@
         <v>467013</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>449101</v>
+        <v>449475</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>482820</v>
+        <v>481813</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8588102095539408</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.825869868062391</v>
+        <v>0.8265575511594226</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8878782205471065</v>
+        <v>0.8860262838262437</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>32606</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>23263</v>
+        <v>23269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>45298</v>
+        <v>43920</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1553552403307102</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1108366649746229</v>
+        <v>0.110864935977456</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2158237614241549</v>
+        <v>0.2092610704923809</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>38</v>
@@ -2137,19 +2137,19 @@
         <v>44171</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>32025</v>
+        <v>31460</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>58132</v>
+        <v>57765</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1322858789414863</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09590995524964213</v>
+        <v>0.09421676045060549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1740947397976325</v>
+        <v>0.1729962814917846</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>71</v>
@@ -2158,19 +2158,19 @@
         <v>76778</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>60971</v>
+        <v>61978</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>94690</v>
+        <v>94316</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1411897904460592</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1121217794528933</v>
+        <v>0.1139737161737563</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1741301319376088</v>
+        <v>0.1734424488405774</v>
       </c>
     </row>
     <row r="24">
@@ -2262,19 +2262,19 @@
         <v>2495953</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2446361</v>
+        <v>2447686</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2541360</v>
+        <v>2541805</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.7624324004727626</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7472838513074984</v>
+        <v>0.7476885112648533</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.776302676384144</v>
+        <v>0.7764388177083755</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2683</v>
@@ -2283,19 +2283,19 @@
         <v>2756435</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2709991</v>
+        <v>2707242</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2799814</v>
+        <v>2797331</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8161987660817052</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8024462380335544</v>
+        <v>0.8016321527696091</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8290435107601938</v>
+        <v>0.8283081018421964</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5130</v>
@@ -2304,19 +2304,19 @@
         <v>5252388</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5181160</v>
+        <v>5190210</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5318619</v>
+        <v>5314565</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.7897339003306083</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7790242503005844</v>
+        <v>0.7803849106857826</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7996922178556836</v>
+        <v>0.7990826702231252</v>
       </c>
     </row>
     <row r="26">
@@ -2333,19 +2333,19 @@
         <v>777718</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>732311</v>
+        <v>731866</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>827310</v>
+        <v>825985</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2375675995272374</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2236973236158561</v>
+        <v>0.2235611822916247</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2527161486925016</v>
+        <v>0.2523114887351468</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>612</v>
@@ -2354,19 +2354,19 @@
         <v>620727</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>577348</v>
+        <v>579831</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>667171</v>
+        <v>669920</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1838012339182948</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1709564892398062</v>
+        <v>0.1716918981578034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1975537619664456</v>
+        <v>0.1983678472303909</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1376</v>
@@ -2375,19 +2375,19 @@
         <v>1398445</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1332214</v>
+        <v>1336268</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1469673</v>
+        <v>1460623</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2102660996693916</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2003077821443166</v>
+        <v>0.200917329776875</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2209757496994156</v>
+        <v>0.2196150893142173</v>
       </c>
     </row>
     <row r="27">
@@ -2722,19 +2722,19 @@
         <v>331628</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>310317</v>
+        <v>311468</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>350764</v>
+        <v>350282</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7302234578995919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6832968871676341</v>
+        <v>0.6858323846252855</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7723600306492906</v>
+        <v>0.7712981339777163</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>326</v>
@@ -2743,19 +2743,19 @@
         <v>331869</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>313220</v>
+        <v>314325</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>347849</v>
+        <v>349431</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7713752170950811</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7280280817258876</v>
+        <v>0.7305964889850743</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8085184201096992</v>
+        <v>0.812196905870696</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>650</v>
@@ -2764,19 +2764,19 @@
         <v>663497</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>634721</v>
+        <v>633100</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>687353</v>
+        <v>688112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7502429000488198</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.717705082268466</v>
+        <v>0.7158714987760658</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7772175984456938</v>
+        <v>0.7780764038052177</v>
       </c>
     </row>
     <row r="5">
@@ -2793,19 +2793,19 @@
         <v>122518</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>103382</v>
+        <v>103864</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>143829</v>
+        <v>142678</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2697765421004081</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2276399693507094</v>
+        <v>0.2287018660222837</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3167031128323656</v>
+        <v>0.3141676153747144</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>95</v>
@@ -2814,19 +2814,19 @@
         <v>98361</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82381</v>
+        <v>80799</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>117010</v>
+        <v>115905</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.228624782904919</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1914815798903005</v>
+        <v>0.1878030941293041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2719719182741124</v>
+        <v>0.2694035110149257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>217</v>
@@ -2835,19 +2835,19 @@
         <v>220879</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>197023</v>
+        <v>196264</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>249655</v>
+        <v>251276</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2497570999511802</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2227824015543062</v>
+        <v>0.2219235961947824</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2822949177315341</v>
+        <v>0.2841285012239344</v>
       </c>
     </row>
     <row r="6">
@@ -2939,19 +2939,19 @@
         <v>524348</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>499038</v>
+        <v>501628</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>545749</v>
+        <v>547009</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7642125546536566</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7273251752853725</v>
+        <v>0.7311000570629057</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7954045790006045</v>
+        <v>0.7972403973261021</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>481</v>
@@ -2960,19 +2960,19 @@
         <v>516997</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>499742</v>
+        <v>495958</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>534998</v>
+        <v>533170</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8485532842954409</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8202324770888768</v>
+        <v>0.8140210286449354</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8780984592185789</v>
+        <v>0.8750977637457475</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>990</v>
@@ -2981,19 +2981,19 @@
         <v>1041346</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1008634</v>
+        <v>1012729</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1068978</v>
+        <v>1069733</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8038808605864963</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7786289861609161</v>
+        <v>0.781789980077639</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8252123601684905</v>
+        <v>0.8257949617830286</v>
       </c>
     </row>
     <row r="8">
@@ -3010,19 +3010,19 @@
         <v>161780</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>140379</v>
+        <v>139119</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>187090</v>
+        <v>184500</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2357874453463435</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2045954209993956</v>
+        <v>0.2027596026738981</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2726748247146278</v>
+        <v>0.2688999429370943</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>89</v>
@@ -3031,19 +3031,19 @@
         <v>92272</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74271</v>
+        <v>76099</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>109527</v>
+        <v>113311</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1514467157045592</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1219015407814209</v>
+        <v>0.1249022362542523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1797675229111231</v>
+        <v>0.1859789713550644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>246</v>
@@ -3052,19 +3052,19 @@
         <v>254052</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>226420</v>
+        <v>225665</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>286764</v>
+        <v>282669</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1961191394135037</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1747876398315096</v>
+        <v>0.1742050382169715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2213710138390839</v>
+        <v>0.218210019922361</v>
       </c>
     </row>
     <row r="9">
@@ -3156,19 +3156,19 @@
         <v>562233</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>540119</v>
+        <v>541740</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>580037</v>
+        <v>581373</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8245540064193821</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7921224355922482</v>
+        <v>0.7944990867313677</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8506655257231036</v>
+        <v>0.8526245542110198</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>581</v>
@@ -3177,19 +3177,19 @@
         <v>618398</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>596739</v>
+        <v>597685</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>635822</v>
+        <v>634411</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8713853580587174</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8408662013565079</v>
+        <v>0.8421983044079113</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8959380441661545</v>
+        <v>0.8939500609809935</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1114</v>
@@ -3198,19 +3198,19 @@
         <v>1180630</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1151811</v>
+        <v>1152810</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1208767</v>
+        <v>1209540</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8484376310015431</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8277278366153223</v>
+        <v>0.8284451832928371</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8686575628184572</v>
+        <v>0.8692135444089143</v>
       </c>
     </row>
     <row r="11">
@@ -3227,19 +3227,19 @@
         <v>119630</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101826</v>
+        <v>100490</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>141744</v>
+        <v>140123</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1754459935806179</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1493344742768967</v>
+        <v>0.1473754457889804</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2078775644077522</v>
+        <v>0.2055009132686323</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -3248,19 +3248,19 @@
         <v>91274</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73850</v>
+        <v>75261</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>112933</v>
+        <v>111987</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1286146419412826</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1040619558338455</v>
+        <v>0.1060499390190065</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1591337986434921</v>
+        <v>0.1578016955920887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>203</v>
@@ -3269,19 +3269,19 @@
         <v>210904</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>182767</v>
+        <v>181994</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>239723</v>
+        <v>238724</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1515623689984568</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1313424371815429</v>
+        <v>0.1307864555910853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1722721633846779</v>
+        <v>0.1715548167071627</v>
       </c>
     </row>
     <row r="12">
@@ -3373,19 +3373,19 @@
         <v>532214</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>512945</v>
+        <v>512020</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>549299</v>
+        <v>549254</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8688306117494802</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8373730006970909</v>
+        <v>0.8358639179979047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8967214488919572</v>
+        <v>0.89664715385834</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>489</v>
@@ -3394,19 +3394,19 @@
         <v>557815</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>540937</v>
+        <v>540836</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>571974</v>
+        <v>572029</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9068132497790951</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8793751179622457</v>
+        <v>0.8792109087149974</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9298310133942614</v>
+        <v>0.9299205959588157</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>964</v>
@@ -3415,19 +3415,19 @@
         <v>1090031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1066340</v>
+        <v>1064335</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1112016</v>
+        <v>1110790</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.887861752056854</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8685650893119962</v>
+        <v>0.8669317793287965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9057692550315058</v>
+        <v>0.9047710269614965</v>
       </c>
     </row>
     <row r="14">
@@ -3444,19 +3444,19 @@
         <v>80350</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>63265</v>
+        <v>63310</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99619</v>
+        <v>100544</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1311693882505198</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1032785511080426</v>
+        <v>0.1033528461416596</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1626269993029089</v>
+        <v>0.1641360820020953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -3465,19 +3465,19 @@
         <v>57323</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43164</v>
+        <v>43109</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74201</v>
+        <v>74302</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09318675022090489</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07016898660573857</v>
+        <v>0.07007940404118433</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1206248820377545</v>
+        <v>0.1207890912850027</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>120</v>
@@ -3486,19 +3486,19 @@
         <v>137672</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>115687</v>
+        <v>116913</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161363</v>
+        <v>163368</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.112138247943146</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.09423074496849412</v>
+        <v>0.09522897303850358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1314349106880039</v>
+        <v>0.1330682206712036</v>
       </c>
     </row>
     <row r="15">
@@ -3590,19 +3590,19 @@
         <v>384851</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>370125</v>
+        <v>371298</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>395490</v>
+        <v>396245</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8961916036849019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8618995140723029</v>
+        <v>0.8646323462621883</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9209682721247701</v>
+        <v>0.9227246097251471</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>360</v>
@@ -3611,19 +3611,19 @@
         <v>392479</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>374590</v>
+        <v>376845</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>405961</v>
+        <v>407131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8764607310320228</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8365113980426107</v>
+        <v>0.8415465574216768</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9065687563197206</v>
+        <v>0.9091807405892697</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>711</v>
@@ -3632,19 +3632,19 @@
         <v>777330</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>754727</v>
+        <v>755208</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>796480</v>
+        <v>795563</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8861195664370245</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8603537061465545</v>
+        <v>0.8609019438101866</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9079497874242007</v>
+        <v>0.906904082421453</v>
       </c>
     </row>
     <row r="17">
@@ -3661,19 +3661,19 @@
         <v>44578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>33939</v>
+        <v>33184</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>59304</v>
+        <v>58131</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1038083963150981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0790317278752298</v>
+        <v>0.07727539027485272</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1381004859276967</v>
+        <v>0.1353676537378112</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -3682,19 +3682,19 @@
         <v>55321</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>41839</v>
+        <v>40669</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73210</v>
+        <v>70955</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1235392689679772</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09343124368027965</v>
+        <v>0.09081925941073028</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1634886019573893</v>
+        <v>0.1584534425783232</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>88</v>
@@ -3703,19 +3703,19 @@
         <v>99899</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80749</v>
+        <v>81666</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>122502</v>
+        <v>122021</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1138804335629754</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09205021257579941</v>
+        <v>0.09309591757854688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1396462938534455</v>
+        <v>0.1390980561898134</v>
       </c>
     </row>
     <row r="18">
@@ -3807,19 +3807,19 @@
         <v>281329</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>270846</v>
+        <v>269638</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>290137</v>
+        <v>290960</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9110265657190899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8770808593682929</v>
+        <v>0.8731702782190388</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9395519466324208</v>
+        <v>0.9422146118041526</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>324</v>
@@ -3828,19 +3828,19 @@
         <v>333354</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>324035</v>
+        <v>322473</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>341238</v>
+        <v>340708</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9416879295678945</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9153625105556535</v>
+        <v>0.9109518877676324</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9639607617406306</v>
+        <v>0.9624637463948249</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>579</v>
@@ -3849,19 +3849,19 @@
         <v>614682</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>599438</v>
+        <v>599623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>626926</v>
+        <v>626540</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9274025480628011</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9044027699091043</v>
+        <v>0.9046809060228118</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9458745462047218</v>
+        <v>0.945293111880848</v>
       </c>
     </row>
     <row r="20">
@@ -3878,19 +3878,19 @@
         <v>27475</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>18667</v>
+        <v>17844</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>37958</v>
+        <v>39166</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0889734342809101</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06044805336757911</v>
+        <v>0.05778538819584743</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1229191406317069</v>
+        <v>0.1268297217809612</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -3899,19 +3899,19 @@
         <v>20642</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12758</v>
+        <v>13288</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29961</v>
+        <v>31523</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05831207043210556</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03603923825936927</v>
+        <v>0.03753625360517512</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08463748944434644</v>
+        <v>0.08904811223236775</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>46</v>
@@ -3920,19 +3920,19 @@
         <v>48118</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>35874</v>
+        <v>36260</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>63362</v>
+        <v>63177</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07259745193719895</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05412545379527828</v>
+        <v>0.05470688811915212</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09559723009089584</v>
+        <v>0.09531909397718824</v>
       </c>
     </row>
     <row r="21">
@@ -4024,19 +4024,19 @@
         <v>237677</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>227822</v>
+        <v>228269</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>243349</v>
+        <v>243434</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9553644066413166</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9157508197610966</v>
+        <v>0.9175481501587421</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9781618145030768</v>
+        <v>0.9785040686642821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>329</v>
@@ -4045,19 +4045,19 @@
         <v>364947</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>353899</v>
+        <v>354718</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>372586</v>
+        <v>372440</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9482430644022686</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9195348334429105</v>
+        <v>0.9216643065573189</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9680900397126193</v>
+        <v>0.9677108673202308</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>541</v>
@@ -4066,19 +4066,19 @@
         <v>602625</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>589573</v>
+        <v>587630</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>613003</v>
+        <v>612624</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9510390350594132</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9304411154285125</v>
+        <v>0.9273739370047086</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9674179239150034</v>
+        <v>0.9668188456186712</v>
       </c>
     </row>
     <row r="23">
@@ -4095,19 +4095,19 @@
         <v>11105</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>5433</v>
+        <v>5348</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>20960</v>
+        <v>20513</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04463559335868334</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02183818549692315</v>
+        <v>0.02149593133571774</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08424918023890388</v>
+        <v>0.0824518498412571</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>18</v>
@@ -4116,19 +4116,19 @@
         <v>19920</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>12281</v>
+        <v>12427</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>30968</v>
+        <v>30149</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05175693559773138</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03190996028738076</v>
+        <v>0.03228913267976922</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08046516655708942</v>
+        <v>0.07833569344268132</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -4137,19 +4137,19 @@
         <v>31024</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20646</v>
+        <v>21025</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>44076</v>
+        <v>46019</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.04896096494058678</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03258207608499638</v>
+        <v>0.03318115438132885</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06955888457148729</v>
+        <v>0.07262606299529191</v>
       </c>
     </row>
     <row r="24">
@@ -4241,19 +4241,19 @@
         <v>2854281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2808659</v>
+        <v>2803916</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2898738</v>
+        <v>2897401</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8341661578776421</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8208331059233854</v>
+        <v>0.8194471350238296</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8471589330775644</v>
+        <v>0.8467680524131014</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2890</v>
@@ -4262,19 +4262,19 @@
         <v>3115859</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3075683</v>
+        <v>3075593</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3154768</v>
+        <v>3152683</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8774666090020109</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8661523099731465</v>
+        <v>0.8661271599095631</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8884237513159238</v>
+        <v>0.8878365702009164</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5549</v>
@@ -4283,19 +4283,19 @@
         <v>5970140</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5908097</v>
+        <v>5909928</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6023373</v>
+        <v>6030399</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8562177219550016</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8473197714758804</v>
+        <v>0.8475823931239564</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.863852179062813</v>
+        <v>0.8648598947793267</v>
       </c>
     </row>
     <row r="26">
@@ -4312,19 +4312,19 @@
         <v>567436</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>522979</v>
+        <v>524316</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>613058</v>
+        <v>617801</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1658338421223579</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1528410669224357</v>
+        <v>0.1532319475868985</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1791668940766148</v>
+        <v>0.1805528649761702</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>402</v>
@@ -4333,19 +4333,19 @@
         <v>435113</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>396204</v>
+        <v>398289</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>475289</v>
+        <v>475379</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1225333909979891</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1115762486840763</v>
+        <v>0.1121634297990835</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1338476900268535</v>
+        <v>0.133872840090437</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>947</v>
@@ -4354,19 +4354,19 @@
         <v>1002549</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>949316</v>
+        <v>942290</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1064592</v>
+        <v>1062761</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1437822780449984</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1361478209371872</v>
+        <v>0.1351401052206734</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1526802285241198</v>
+        <v>0.1524176068760435</v>
       </c>
     </row>
     <row r="27">
@@ -4701,19 +4701,19 @@
         <v>291016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>270686</v>
+        <v>270218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>308599</v>
+        <v>308983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6954189231901531</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6468375695950134</v>
+        <v>0.6457185478419553</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7374363954405772</v>
+        <v>0.7383520878721772</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>267</v>
@@ -4722,19 +4722,19 @@
         <v>261264</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>242806</v>
+        <v>241198</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>281147</v>
+        <v>280365</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6618325477217131</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6150729152822573</v>
+        <v>0.6110018834234985</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7121982526385231</v>
+        <v>0.7102191866253124</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>541</v>
@@ -4743,19 +4743,19 @@
         <v>552280</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>523724</v>
+        <v>525527</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>578027</v>
+        <v>579390</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.679115486357156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6440008507138347</v>
+        <v>0.6462174425074535</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7107743783748853</v>
+        <v>0.7124507262641403</v>
       </c>
     </row>
     <row r="5">
@@ -4772,19 +4772,19 @@
         <v>127460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109877</v>
+        <v>109493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147790</v>
+        <v>148258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3045810768098469</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2625636045594231</v>
+        <v>0.2616479121278229</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3531624304049867</v>
+        <v>0.3542814521580449</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>136</v>
@@ -4793,19 +4793,19 @@
         <v>133495</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>113612</v>
+        <v>114394</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>151953</v>
+        <v>153561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3381674522782869</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2878017473614768</v>
+        <v>0.2897808133746877</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3849270847177428</v>
+        <v>0.3889981165765015</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -4814,19 +4814,19 @@
         <v>260955</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>235208</v>
+        <v>233845</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>289511</v>
+        <v>287708</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.320884513642844</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2892256216251147</v>
+        <v>0.2875492737358598</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3559991492861652</v>
+        <v>0.3537825574925465</v>
       </c>
     </row>
     <row r="6">
@@ -4918,19 +4918,19 @@
         <v>439679</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>418344</v>
+        <v>417425</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>460679</v>
+        <v>459900</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7458349693182743</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7096432375672233</v>
+        <v>0.708084559929037</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7814561991651254</v>
+        <v>0.7801347753412947</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>436</v>
@@ -4939,19 +4939,19 @@
         <v>423871</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>403518</v>
+        <v>404480</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>442683</v>
+        <v>443351</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7521520528201669</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7160355401034536</v>
+        <v>0.7177436322525218</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7855332876186345</v>
+        <v>0.7867193328885699</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>862</v>
@@ -4960,19 +4960,19 @@
         <v>863550</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>836821</v>
+        <v>831616</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>894181</v>
+        <v>890748</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7489223740136399</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7257409637073778</v>
+        <v>0.7212272047034054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7754872328084621</v>
+        <v>0.7725101378636643</v>
       </c>
     </row>
     <row r="8">
@@ -4989,19 +4989,19 @@
         <v>149834</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>128834</v>
+        <v>129613</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>171169</v>
+        <v>172088</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2541650306817257</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2185438008348746</v>
+        <v>0.2198652246587053</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2903567624327768</v>
+        <v>0.2919154400709631</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>143</v>
@@ -5010,19 +5010,19 @@
         <v>139673</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>120861</v>
+        <v>120193</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>160026</v>
+        <v>159064</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2478479471798331</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2144667123813654</v>
+        <v>0.2132806671114302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2839644598965462</v>
+        <v>0.2822563677474781</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>283</v>
@@ -5031,19 +5031,19 @@
         <v>289507</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>258876</v>
+        <v>262309</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>316236</v>
+        <v>321441</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.25107762598636</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2245127671915377</v>
+        <v>0.2274898621363357</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.274259036292622</v>
+        <v>0.2787727952965946</v>
       </c>
     </row>
     <row r="9">
@@ -5135,19 +5135,19 @@
         <v>516607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>493229</v>
+        <v>493884</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>536736</v>
+        <v>537193</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7742070160072383</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7391719079643347</v>
+        <v>0.740152088664951</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8043721261659489</v>
+        <v>0.805056999283541</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>562</v>
@@ -5156,19 +5156,19 @@
         <v>556571</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>538435</v>
+        <v>536552</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>573449</v>
+        <v>573428</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8436018406874736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8161117582799605</v>
+        <v>0.8132576001532391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8691841076278495</v>
+        <v>0.8691510803444739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1056</v>
@@ -5177,19 +5177,19 @@
         <v>1073179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1043696</v>
+        <v>1045420</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1101170</v>
+        <v>1102594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8087078703773031</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7864903990628314</v>
+        <v>0.787789767011424</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8298006592132666</v>
+        <v>0.8308744420040001</v>
       </c>
     </row>
     <row r="11">
@@ -5206,19 +5206,19 @@
         <v>150666</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>130537</v>
+        <v>130080</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>174044</v>
+        <v>173389</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2257929839927618</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1956278738340512</v>
+        <v>0.1949430007164589</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2608280920356653</v>
+        <v>0.2598479113350481</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>102</v>
@@ -5227,19 +5227,19 @@
         <v>103185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>86307</v>
+        <v>86328</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>121321</v>
+        <v>123204</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1563981593125264</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1308158923721505</v>
+        <v>0.1308489196555262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1838882417200394</v>
+        <v>0.1867423998467609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>245</v>
@@ -5248,19 +5248,19 @@
         <v>253850</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>225859</v>
+        <v>224435</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>283333</v>
+        <v>281609</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.191292129622697</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1701993407867333</v>
+        <v>0.1691255579959998</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2135096009371685</v>
+        <v>0.2122102329885758</v>
       </c>
     </row>
     <row r="12">
@@ -5352,19 +5352,19 @@
         <v>517805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>496201</v>
+        <v>494805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>538640</v>
+        <v>538828</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8014962080088447</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7680564121996099</v>
+        <v>0.7658943990419528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8337458410615086</v>
+        <v>0.8340376515017356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>520</v>
@@ -5373,19 +5373,19 @@
         <v>559219</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>540307</v>
+        <v>537871</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>577663</v>
+        <v>576202</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8630395264215234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8338519802286327</v>
+        <v>0.8300924731462709</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.891503889168126</v>
+        <v>0.8892489365711774</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>990</v>
@@ -5394,19 +5394,19 @@
         <v>1077024</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1046145</v>
+        <v>1047514</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1103366</v>
+        <v>1102926</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.832313442306548</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8084502532795154</v>
+        <v>0.8095084163277603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8526696069333773</v>
+        <v>0.852330114185989</v>
       </c>
     </row>
     <row r="14">
@@ -5423,19 +5423,19 @@
         <v>128243</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>107408</v>
+        <v>107220</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>149847</v>
+        <v>151243</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1985037919911553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1662541589384914</v>
+        <v>0.1659623484982646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2319435878003903</v>
+        <v>0.2341056009580472</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>81</v>
@@ -5444,19 +5444,19 @@
         <v>88746</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70302</v>
+        <v>71763</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>107658</v>
+        <v>110094</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1369604735784767</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1084961108318742</v>
+        <v>0.1107510634288227</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1661480197713676</v>
+        <v>0.1699075268537299</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>193</v>
@@ -5465,19 +5465,19 @@
         <v>216989</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>190647</v>
+        <v>191087</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>247868</v>
+        <v>246499</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1676865576934519</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1473303930666226</v>
+        <v>0.1476698858140109</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1915497467204846</v>
+        <v>0.1904915836722398</v>
       </c>
     </row>
     <row r="15">
@@ -5569,19 +5569,19 @@
         <v>410951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>394954</v>
+        <v>394919</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>425383</v>
+        <v>424842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8617696874295069</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.828223313029944</v>
+        <v>0.8281497217544889</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.892033759696977</v>
+        <v>0.8908979615911895</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>383</v>
@@ -5590,19 +5590,19 @@
         <v>437882</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>422518</v>
+        <v>420546</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>452082</v>
+        <v>453563</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8813173812825698</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8503948247117683</v>
+        <v>0.8464255528271726</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.90989793721538</v>
+        <v>0.9128789828536256</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>747</v>
@@ -5611,19 +5611,19 @@
         <v>848833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>826856</v>
+        <v>822356</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>868892</v>
+        <v>867765</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8717440909010071</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8491738891731118</v>
+        <v>0.8445523958997412</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8923441802373859</v>
+        <v>0.8911869390095436</v>
       </c>
     </row>
     <row r="17">
@@ -5640,19 +5640,19 @@
         <v>65918</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>51486</v>
+        <v>52027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>81915</v>
+        <v>81950</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1382303125704931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.107966240303023</v>
+        <v>0.1091020384088104</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1717766869700559</v>
+        <v>0.1718502782455109</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>50</v>
@@ -5661,19 +5661,19 @@
         <v>58967</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>44767</v>
+        <v>43286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>74331</v>
+        <v>76303</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1186826187174302</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09010206278461985</v>
+        <v>0.08712101714637442</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1496051752882316</v>
+        <v>0.1535744471728276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>109</v>
@@ -5682,19 +5682,19 @@
         <v>124885</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>104826</v>
+        <v>105953</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>146862</v>
+        <v>151362</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1282559090989929</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1076558197626141</v>
+        <v>0.1088130609904562</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1508261108268882</v>
+        <v>0.1554476041002586</v>
       </c>
     </row>
     <row r="18">
@@ -5786,19 +5786,19 @@
         <v>304534</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>291515</v>
+        <v>292217</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>313581</v>
+        <v>313920</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9137738863027625</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.8747074987433192</v>
+        <v>0.8768157029789027</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9409179033401724</v>
+        <v>0.9419349181307177</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>318</v>
@@ -5807,19 +5807,19 @@
         <v>340426</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>327675</v>
+        <v>327960</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>350350</v>
+        <v>350655</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9061820237740232</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8722388471448136</v>
+        <v>0.872997829135964</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9325973053103119</v>
+        <v>0.933410883771827</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>616</v>
@@ -5828,19 +5828,19 @@
         <v>644961</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>626946</v>
+        <v>628996</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>658219</v>
+        <v>659153</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.909750929244545</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8843408093125281</v>
+        <v>0.8872313712076781</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9284518644154716</v>
+        <v>0.9297704709963703</v>
       </c>
     </row>
     <row r="20">
@@ -5857,19 +5857,19 @@
         <v>28737</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>19690</v>
+        <v>19351</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41756</v>
+        <v>41054</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0862261136972375</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05908209665982757</v>
+        <v>0.05806508186928232</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1252925012566805</v>
+        <v>0.1231842970210973</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>34</v>
@@ -5878,19 +5878,19 @@
         <v>35245</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25321</v>
+        <v>25016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>47996</v>
+        <v>47711</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0938179762259768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06740269468968807</v>
+        <v>0.06658911622817305</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1277611528551864</v>
+        <v>0.127002170864036</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>60</v>
@@ -5899,19 +5899,19 @@
         <v>63981</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>50723</v>
+        <v>49789</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>81996</v>
+        <v>79946</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09024907075545502</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07154813558452833</v>
+        <v>0.07022952900362985</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1156591906874718</v>
+        <v>0.1127686287923219</v>
       </c>
     </row>
     <row r="21">
@@ -6003,19 +6003,19 @@
         <v>230712</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>220421</v>
+        <v>221100</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>238340</v>
+        <v>239113</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9008662832570012</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8606839460421353</v>
+        <v>0.8633362832054087</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9306522642925577</v>
+        <v>0.933671948786972</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>280</v>
@@ -6024,19 +6024,19 @@
         <v>371557</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>359351</v>
+        <v>357281</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>383242</v>
+        <v>380835</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9284998778822531</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8979969859778035</v>
+        <v>0.8928257648950969</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.957701133497707</v>
+        <v>0.951685900152632</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>552</v>
@@ -6045,19 +6045,19 @@
         <v>602269</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>585318</v>
+        <v>586476</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>614506</v>
+        <v>615326</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9177162399027912</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8918878450489223</v>
+        <v>0.8936513263351482</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9363635973161513</v>
+        <v>0.9376127660857319</v>
       </c>
     </row>
     <row r="23">
@@ -6074,19 +6074,19 @@
         <v>25388</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>17760</v>
+        <v>16987</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>35679</v>
+        <v>35000</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09913371674299878</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06934773570744232</v>
+        <v>0.06632805121302797</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1393160539578647</v>
+        <v>0.1366637167945909</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -6095,19 +6095,19 @@
         <v>28612</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16927</v>
+        <v>19334</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40818</v>
+        <v>42888</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07150012211774696</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04229886650229298</v>
+        <v>0.04831409984736797</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1020030140221965</v>
+        <v>0.1071742351049029</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>50</v>
@@ -6116,19 +6116,19 @@
         <v>54000</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>41763</v>
+        <v>40943</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>70951</v>
+        <v>69793</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08228376009720888</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06363640268384872</v>
+        <v>0.06238723391426831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.108112154951078</v>
+        <v>0.1063486736648518</v>
       </c>
     </row>
     <row r="24">
@@ -6220,19 +6220,19 @@
         <v>2711305</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2662698</v>
+        <v>2657617</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2759771</v>
+        <v>2757977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8003735379926128</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7860248371076513</v>
+        <v>0.7845249070426741</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8146805223479382</v>
+        <v>0.8141507883786339</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2766</v>
@@ -6241,19 +6241,19 @@
         <v>2950790</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2906665</v>
+        <v>2904354</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2995158</v>
+        <v>2992061</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8338598545921787</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8213906501999677</v>
+        <v>0.8207376027752409</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8463978260736812</v>
+        <v>0.8455225564596968</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5364</v>
@@ -6262,19 +6262,19 @@
         <v>5662096</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5591396</v>
+        <v>5595084</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5719945</v>
+        <v>5723529</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8174821071399987</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8072745826193918</v>
+        <v>0.8078070045467235</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8258342279724606</v>
+        <v>0.8263516886496638</v>
       </c>
     </row>
     <row r="26">
@@ -6291,19 +6291,19 @@
         <v>676245</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>627779</v>
+        <v>629573</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>724852</v>
+        <v>729933</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1996264620073872</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1853194776520616</v>
+        <v>0.1858492116213662</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2139751628923487</v>
+        <v>0.2154750929573258</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>567</v>
@@ -6312,19 +6312,19 @@
         <v>587922</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>543554</v>
+        <v>546651</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>632047</v>
+        <v>634358</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1661401454078213</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1536021739263189</v>
+        <v>0.1544774435403034</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1786093498000323</v>
+        <v>0.1792623972247595</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1194</v>
@@ -6333,19 +6333,19 @@
         <v>1264167</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1206318</v>
+        <v>1202734</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1334867</v>
+        <v>1331179</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1825178928600013</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1741657720275394</v>
+        <v>0.1736483113503363</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1927254173806082</v>
+        <v>0.1921929954532765</v>
       </c>
     </row>
     <row r="27">
